--- a/data/trans_bre/P29_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,12 +525,16 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,68</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,37%</t>
+          <t>-14,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-32,93%</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-21,37%</t>
+          <t>-32,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-23,74%</t>
+          <t>-29,89%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-22,71%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-23,77%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-20,94%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 0,43</t>
+          <t>-22,28; -1,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,2; -0,73</t>
+          <t>-22,42; -0,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 4,8</t>
+          <t>-20,46; 3,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 0,43</t>
+          <t>-8,94; 15,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,91; -1,27</t>
+          <t>-26,81; 1,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,2; -1,45</t>
+          <t>-22,3; 5,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 19,12</t>
+          <t>-50,46; -4,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 1,47</t>
+          <t>-51,9; -2,25</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-46,59; 14,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-28,8; 80,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-42,48; 2,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-46,31; 18,16</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,37</t>
+          <t>-18,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,94</t>
+          <t>-15,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,26</t>
+          <t>-12,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-4,73</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-46,46%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-41,37%</t>
+          <t>-11,74</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-33,88%</t>
+          <t>-45,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-40,27%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-34,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-32,14%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,56; -8,5</t>
+          <t>-30,63; -6,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,68; -5,2</t>
+          <t>-24,99; -5,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -1,21</t>
+          <t>-23,2; -2,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 8,19</t>
+          <t>-12,71; 9,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,01; -24,22</t>
+          <t>-17,64; 7,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,88; -16,04</t>
+          <t>-23,2; -0,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,44; -4,41</t>
+          <t>-65,04; -20,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 21,27</t>
+          <t>-56,73; -16,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-53,16; -6,64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-38,57; 52,53</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,11; 18,84</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-54,13; 0,48</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,8</t>
+          <t>-18,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,21</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-49,11%</t>
+          <t>-12,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,55%</t>
+          <t>-13,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-21,01%</t>
+          <t>-51,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-28,6%</t>
+          <t>-23,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-20,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-33,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-28,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-35,64%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,51; -8,66</t>
+          <t>-27,04; -10,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 0,75</t>
+          <t>-13,07; 0,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 1,48</t>
+          <t>-12,75; 0,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,14; -3,91</t>
+          <t>-19,56; -2,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,48; -27,95</t>
+          <t>-20,49; -2,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 3,07</t>
+          <t>-22,68; -3,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 6,39</t>
+          <t>-65,55; -33,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,48; -10,47</t>
+          <t>-41,3; 4,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,81; 3,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-54,18; -8,83</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-44,29; -7,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-53,12; -10,19</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,21</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>-8,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-14,45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-6,35</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-38,51%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,54%</t>
+          <t>-37,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-27,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-26,86%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-43,63%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>-14,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-15,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,23; -3,67</t>
+          <t>-17,28; -3,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 0,09</t>
+          <t>-13,97; -1,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -1,05</t>
+          <t>-14,91; -1,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 3,08</t>
+          <t>-22,67; -6,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,96; -15,25</t>
+          <t>-16,16; 4,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 0,62</t>
+          <t>-14,71; 3,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,97; -4,11</t>
+          <t>-56,11; -14,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 7,38</t>
+          <t>-45,49; -4,34</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-42,28; -5,91</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-60,12; -24,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-31,58; 10,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-36,93; 11,63</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,16</t>
+          <t>-15,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,74</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-30,23%</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-41,72%</t>
+          <t>-11,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>-30,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-42,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-18,66%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-22,47%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-20,55%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 5,17</t>
+          <t>-11,24; 5,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -1,8</t>
+          <t>-16,57; -1,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,96; -6,41</t>
+          <t>-23,87; -7,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 0,75</t>
+          <t>-13,7; 3,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 25,92</t>
+          <t>-19,68; 0,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-49,39; -5,69</t>
+          <t>-16,78; 2,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-56,87; -19,94</t>
+          <t>-38,11; 28,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 1,45</t>
+          <t>-49,49; -5,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-57,78; -23,49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-42,52; 16,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-40,0; 2,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-42,66; 7,11</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,51</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,33</t>
+          <t>-7,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,26</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-30,66%</t>
+          <t>-13,29</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,21%</t>
+          <t>-24,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,62%</t>
+          <t>-8,06%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-19,6%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-26,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-20,63%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,88; -0,15</t>
+          <t>-17,76; 2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 8,76</t>
+          <t>-12,87; 6,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 1,08</t>
+          <t>-17,57; 3,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 0,17</t>
+          <t>-9,91; 14,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,72; 1,77</t>
+          <t>-25,46; -1,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 33,53</t>
+          <t>-19,3; 4,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,3; 3,23</t>
+          <t>-49,47; 11,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,89; 0,6</t>
+          <t>-33,08; 26,53</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-38,94; 9,95</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-30,76; 68,74</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-46,5; -3,14</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-45,58; 13,89</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,24</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-37,37%</t>
+          <t>-10,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-26,07%</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-27,28%</t>
+          <t>-36,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-26,22%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-26,75%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-17,78%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-21,29%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-24,46%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -8,0</t>
+          <t>-16,44; -8,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -4,69</t>
+          <t>-11,62; -4,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,74; -5,5</t>
+          <t>-12,9; -5,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -5,13</t>
+          <t>-9,06; -0,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,63; -26,48</t>
+          <t>-14,65; -5,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,98; -15,6</t>
+          <t>-13,28; -4,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,66; -16,89</t>
+          <t>-45,9; -26,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-29,37; -11,3</t>
+          <t>-34,46; -15,78</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-35,47; -16,66</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-29,07; -2,41</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-29,12; -11,35</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-33,98; -13,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
